--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Punta del cerro K</t>
+          <t>Perforación de pozo Boleadoras B</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12635,7 +12635,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Perforación de pozo Boleadoras B</t>
+          <t>Perforación de pozo exploración Punta del cerro K</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12683,7 +12683,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Perforación de pozo Boleadoras B</t>
+          <t>Perforación de pozo exploración Punta del cerro K</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12635,7 +12635,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Punta del cerro K</t>
+          <t>Perforación de pozo Boleadoras B</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12683,7 +12683,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Perforación de pozo Boleadoras B</t>
+          <t>Perforación de pozo exploración Punta del cerro K</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12683,7 +12683,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Punta del cerro K</t>
+          <t>Perforación de pozo Boleadoras B</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12731,7 +12731,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Punta del cerro K</t>
+          <t>Perforación de pozo Boleadoras B</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12683,7 +12683,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Perforación de pozo Boleadoras B</t>
+          <t>Perforación de pozo exploración Punta del cerro K</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12731,7 +12731,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>03/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12587,7 +12587,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12587,7 +12587,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/08/2022</t>
+          <t>23/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12587,7 +12587,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12635,7 +12635,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12587,7 +12587,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12635,7 +12635,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12635,7 +12635,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12683,7 +12683,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/09/2022</t>
+          <t>29/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12731,7 +12731,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12779,7 +12779,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12731,7 +12731,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12779,7 +12779,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/02/2023</t>
+          <t>03/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Perforación de pozo Boleadoras B</t>
+          <t>Perforación de pozo exploración Punta del cerro K</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13067,7 +13067,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Punta del cerro K</t>
+          <t>Perforación de pozo Boleadoras B</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13115,7 +13115,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Punta del cerro K</t>
+          <t>Perforación de pozo Boleadoras B</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13067,7 +13067,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Perforación de pozo Boleadoras B</t>
+          <t>Perforación de pozo exploración Punta del cerro K</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13115,7 +13115,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12779,7 +12779,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12827,7 +12827,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12779,7 +12779,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12827,7 +12827,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Perforación de pozo Boleadoras B</t>
+          <t>Perforación de pozo exploración Punta del cerro K</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13163,7 +13163,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Punta del cerro K</t>
+          <t>Perforación de pozo Boleadoras B</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13211,7 +13211,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Punta del cerro K</t>
+          <t>Perforación de pozo Boleadoras B</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13163,7 +13163,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Perforación de pozo Boleadoras B</t>
+          <t>Perforación de pozo exploración Punta del cerro K</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13211,7 +13211,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Perforación de pozo Boleadoras B</t>
+          <t>Perforación de pozo exploración Punta del cerro K</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13163,7 +13163,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Punta del cerro K</t>
+          <t>Perforación de pozo Boleadoras B</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13211,7 +13211,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Punta del cerro K</t>
+          <t>Perforación de pozo Boleadoras B</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13163,7 +13163,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Perforación de pozo Boleadoras B</t>
+          <t>Perforación de pozo exploración Punta del cerro K</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13211,7 +13211,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12875,7 +12875,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12923,7 +12923,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12875,7 +12875,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12923,7 +12923,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">

--- a/data/San Gregorio.xlsx
+++ b/data/San Gregorio.xlsx
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo El Fierro 3</t>
+          <t>Construcción de Línea de Flujo para Pozo El Fierro 2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128875223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128874820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
+          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>120000</v>
+        <v>530</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Alakaluf 9</t>
+          <t>Actividades de Perforación en Pozos en Área Continente, Bloque Brótula</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>GEOPARK CHILE LIMITED Agencia en Chile</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>530</v>
+        <v>120000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4603370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
+          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12875,7 +12875,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Línea de Flujo para el futuro pozo Palenque Este D</t>
+          <t>Perforación de Pozo Exploratorio Palenque Este D</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12923,7 +12923,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4439038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
+          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo e instalaciones de proceso de producción Pozo Tropilla G (e-seia)</t>
+          <t>Construcción de línea de flujo es instalaciones de proceso del pozo Tropilla F (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
